--- a/Stochastic_engine/CA_hydropower/sites.xlsx
+++ b/Stochastic_engine/CA_hydropower/sites.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="ORCA" sheetId="1" r:id="rId1"/>
-    <sheet name="PGE" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="ORCA" sheetId="1" r:id="rId2"/>
+    <sheet name="PGE" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="SCE" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -865,1021 +865,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BR1" sqref="A1:BR1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH1"/>
-  <sheetViews>
-    <sheetView topLeftCell="BP1" workbookViewId="0">
-      <selection sqref="A1:CH1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="CA1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CD1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="CE1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="CF1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="CG1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH1" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2695,6 +1680,1021 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="A1:O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BR3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BR1" sqref="A1:BR1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH1"/>
+  <sheetViews>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection sqref="A1:CH1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BZ1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="CA1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH1" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
